--- a/data/fakecsv/dept_WORK.xlsx
+++ b/data/fakecsv/dept_WORK.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1141" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1166" uniqueCount="107">
   <si>
     <t>Department</t>
   </si>
@@ -25,7 +25,7 @@
     <t>User ID</t>
   </si>
   <si>
-    <t>Fullname</t>
+    <t>Name</t>
   </si>
   <si>
     <t>System1</t>
@@ -40,268 +40,274 @@
     <t>WORK</t>
   </si>
   <si>
-    <t>M9JE60KCXWMUS5HCU</t>
-  </si>
-  <si>
-    <t>HAMCWZGB8BKUSJAC9</t>
-  </si>
-  <si>
-    <t>0K0ES347XPDWU4HM7</t>
-  </si>
-  <si>
-    <t>58F9HJMZ1LU5KMBE2</t>
-  </si>
-  <si>
-    <t>D543UFM1884Y6CUUZ</t>
-  </si>
-  <si>
-    <t>64XGEBEW2VZSM1E7P</t>
-  </si>
-  <si>
-    <t>EDMSVK9V0VUAXWN6T</t>
-  </si>
-  <si>
-    <t>ZSYU45DX2EYW0YARF</t>
-  </si>
-  <si>
-    <t>KTP8U7HG1U8MB03PS</t>
-  </si>
-  <si>
-    <t>AWJU6XW10KLJZC993</t>
-  </si>
-  <si>
-    <t>DUSVJKJX6ZWJNU30X</t>
-  </si>
-  <si>
-    <t>6ZEY8ZEY9XX1F08A5</t>
-  </si>
-  <si>
-    <t>SA6JEYAK34FX6BARK</t>
-  </si>
-  <si>
-    <t>LB2DEEUV3HXET85VA</t>
-  </si>
-  <si>
-    <t>FXCA9TPP6FVHPUV4U</t>
-  </si>
-  <si>
-    <t>PU8NUTZ82UZGN1HFU</t>
-  </si>
-  <si>
-    <t>XYGNDSD624GM5APGJ</t>
-  </si>
-  <si>
-    <t>UTFU06C63ACEVKBFC</t>
-  </si>
-  <si>
-    <t>ZJAJF6K76TYPGJKC7</t>
-  </si>
-  <si>
-    <t>BM5NY6VZXBPZ582YL</t>
-  </si>
-  <si>
-    <t>05GESM4G6PN9XYL1Y</t>
-  </si>
-  <si>
-    <t>N17NC2M0440XUZKRH</t>
-  </si>
-  <si>
-    <t>9V6FV6F74E32HMM6V</t>
-  </si>
-  <si>
-    <t>SPZYB3EA322K2H6M6</t>
-  </si>
-  <si>
-    <t>NPFXKLHK50EN8XSJ4</t>
-  </si>
-  <si>
-    <t>YM272EXWXDBGSLPPK</t>
-  </si>
-  <si>
-    <t>3S2PC4TW625VGX1DU</t>
-  </si>
-  <si>
-    <t>WM37UGK75FX0NFT8V</t>
-  </si>
-  <si>
-    <t>E0X1NBRC40JAG2U7X</t>
-  </si>
-  <si>
-    <t>3MZ3RR7U43C5904TM</t>
-  </si>
-  <si>
-    <t>FTR23BAS7FX267L3X</t>
-  </si>
-  <si>
-    <t>CGPTNNKD7KDSHFF6V</t>
-  </si>
-  <si>
-    <t>HVXYNELL39CKAHRSL</t>
-  </si>
-  <si>
-    <t>D68ZCDN685L34HS5V</t>
-  </si>
-  <si>
-    <t>EM9D66XM0KAYSY8E5</t>
-  </si>
-  <si>
-    <t>YDR2U3144NPCTBCLT</t>
-  </si>
-  <si>
-    <t>LDL1VGNN2V3JUATP9</t>
-  </si>
-  <si>
-    <t>AWDP12WA4NKJ8GT1Y</t>
-  </si>
-  <si>
-    <t>E29Z93T87TB27NF9E</t>
-  </si>
-  <si>
-    <t>AWWDWPUT9F91BT16W</t>
-  </si>
-  <si>
-    <t>0H9JKCCV1HR1AKFZ1</t>
-  </si>
-  <si>
-    <t>VR61JWSDXPZNB5062</t>
-  </si>
-  <si>
-    <t>KNEN0WK58FVBMWEFK</t>
-  </si>
-  <si>
-    <t>SGFZMGDZ2YK8LMGPZ</t>
-  </si>
-  <si>
-    <t>Robert Gray</t>
-  </si>
-  <si>
-    <t>Kenneth Jones</t>
-  </si>
-  <si>
-    <t>Katie Stewart</t>
-  </si>
-  <si>
-    <t>Mark Morgan</t>
-  </si>
-  <si>
-    <t>Toni Smith</t>
-  </si>
-  <si>
-    <t>Timothy Taylor</t>
-  </si>
-  <si>
-    <t>Cheyenne Knight</t>
-  </si>
-  <si>
-    <t>Christine Cummings</t>
-  </si>
-  <si>
-    <t>Daniel Holloway</t>
-  </si>
-  <si>
-    <t>Nichole Elliott</t>
-  </si>
-  <si>
-    <t>John Ellis</t>
-  </si>
-  <si>
-    <t>Abigail Hamilton</t>
-  </si>
-  <si>
-    <t>Holly Steele</t>
-  </si>
-  <si>
-    <t>Victoria Young</t>
-  </si>
-  <si>
-    <t>Randy Mcdonald</t>
-  </si>
-  <si>
-    <t>Renee Hinton</t>
-  </si>
-  <si>
-    <t>Shane Brown</t>
-  </si>
-  <si>
-    <t>Jonathan Martin</t>
-  </si>
-  <si>
-    <t>Jesus Nelson</t>
-  </si>
-  <si>
-    <t>Joe Hall</t>
-  </si>
-  <si>
-    <t>Shannon Hunt</t>
-  </si>
-  <si>
-    <t>Robert Vaughn</t>
-  </si>
-  <si>
-    <t>Derek Hancock</t>
-  </si>
-  <si>
-    <t>John Hoover</t>
-  </si>
-  <si>
-    <t>William Dixon</t>
-  </si>
-  <si>
-    <t>Roy Allison</t>
-  </si>
-  <si>
-    <t>Brianna West</t>
-  </si>
-  <si>
-    <t>Ashley Mccoy</t>
-  </si>
-  <si>
-    <t>Allison Davis</t>
-  </si>
-  <si>
-    <t>Michael Sanchez</t>
-  </si>
-  <si>
-    <t>Amy Reed</t>
-  </si>
-  <si>
-    <t>George King</t>
-  </si>
-  <si>
-    <t>Michelle Williams</t>
-  </si>
-  <si>
-    <t>Nicholas Garcia</t>
-  </si>
-  <si>
-    <t>Mark Smith</t>
-  </si>
-  <si>
-    <t>Danielle Ortiz</t>
-  </si>
-  <si>
-    <t>Kenneth Marquez</t>
-  </si>
-  <si>
-    <t>Rebecca Simmons</t>
-  </si>
-  <si>
-    <t>Derek Grant</t>
-  </si>
-  <si>
-    <t>Maria Reyes</t>
-  </si>
-  <si>
-    <t>Julie Jacobs</t>
-  </si>
-  <si>
-    <t>Laura Rivera</t>
-  </si>
-  <si>
-    <t>Frank Morrison</t>
-  </si>
-  <si>
-    <t>Whitney Reid</t>
+    <t>557ETDFZ63SKGWE5X</t>
+  </si>
+  <si>
+    <t>LC37PFN32VU8Z4WU2</t>
+  </si>
+  <si>
+    <t>CU2PUXLH8KM6PXBMS</t>
+  </si>
+  <si>
+    <t>BPAK7YUY9ZLE1ER19</t>
+  </si>
+  <si>
+    <t>3BA9A09K8TTED0JPC</t>
+  </si>
+  <si>
+    <t>WH86TNKP69LMHV1L5</t>
+  </si>
+  <si>
+    <t>KVSKDD784JWKE27JM</t>
+  </si>
+  <si>
+    <t>B0DKXGEK3Y1DYRRDE</t>
+  </si>
+  <si>
+    <t>HXASBB213GAJVFUJ4</t>
+  </si>
+  <si>
+    <t>7MMVGGEL4FEVTKN2T</t>
+  </si>
+  <si>
+    <t>5S90SZMT8CBNUM53C</t>
+  </si>
+  <si>
+    <t>2UBYLNFW3B1121HW8</t>
+  </si>
+  <si>
+    <t>3DG71EXH91CVLK83B</t>
+  </si>
+  <si>
+    <t>VBFD8MCJ4WKYDVSYF</t>
+  </si>
+  <si>
+    <t>Z6X8YRDM3ZUFXMAVG</t>
+  </si>
+  <si>
+    <t>C768KB29455V21YXM</t>
+  </si>
+  <si>
+    <t>RNCXGFPJ8XPEWSRTC</t>
+  </si>
+  <si>
+    <t>68ZMCHZD64MMDER16</t>
+  </si>
+  <si>
+    <t>EKEBG3AE09N6F58SL</t>
+  </si>
+  <si>
+    <t>HRF4KR089WV0ESJKR</t>
+  </si>
+  <si>
+    <t>BC0XGPUL3E6P0XMY6</t>
+  </si>
+  <si>
+    <t>5UPX25J3X2YDTC4XK</t>
+  </si>
+  <si>
+    <t>6UDZLGBX9ZF8HPT3R</t>
+  </si>
+  <si>
+    <t>P2MJGANB16CJYHD4X</t>
+  </si>
+  <si>
+    <t>1D5CP82B3NK7NRSDS</t>
+  </si>
+  <si>
+    <t>8KBTPKZJX3B0A8F4K</t>
+  </si>
+  <si>
+    <t>5HNCYF1A2ETHSHZC3</t>
+  </si>
+  <si>
+    <t>S6DSCJTX7H9VMLLZR</t>
+  </si>
+  <si>
+    <t>MEWH50VJ67R7F48PP</t>
+  </si>
+  <si>
+    <t>5KCTL02P4EGWD2FCL</t>
+  </si>
+  <si>
+    <t>6ELLG85D1X44VLLT6</t>
+  </si>
+  <si>
+    <t>VXFB21PM53LVB7VA6</t>
+  </si>
+  <si>
+    <t>URU8EY6P9N36NXADH</t>
+  </si>
+  <si>
+    <t>EBKUAHE19D3FBC3YR</t>
+  </si>
+  <si>
+    <t>G6JK1HBL5ZMWR6SGF</t>
+  </si>
+  <si>
+    <t>MPD95BFT787BJGPJB</t>
+  </si>
+  <si>
+    <t>540DT2R0711NS0HW0</t>
+  </si>
+  <si>
+    <t>TGDJR0JA8FMNK4T8E</t>
+  </si>
+  <si>
+    <t>YY3S8D078NM0GPA7R</t>
+  </si>
+  <si>
+    <t>V8CFG77D4ZVR4HFZD</t>
+  </si>
+  <si>
+    <t>Z2ENUSCT7S22EP78L</t>
+  </si>
+  <si>
+    <t>BC93NWYR1NBMMBFU5</t>
+  </si>
+  <si>
+    <t>9SX70Y8R7EKSTAHKR</t>
+  </si>
+  <si>
+    <t>WJYSG3S324FG716B2</t>
+  </si>
+  <si>
+    <t>73H88L7J76UFMB854</t>
+  </si>
+  <si>
+    <t>Jason Castro</t>
+  </si>
+  <si>
+    <t>Karen Hood</t>
+  </si>
+  <si>
+    <t>Dana Bell</t>
+  </si>
+  <si>
+    <t>Elijah Bray</t>
+  </si>
+  <si>
+    <t>Joshua Jones</t>
+  </si>
+  <si>
+    <t>Roger Parsons</t>
+  </si>
+  <si>
+    <t>Antonio Griffin</t>
+  </si>
+  <si>
+    <t>Paul Bridges</t>
+  </si>
+  <si>
+    <t>Jeremy Jones</t>
+  </si>
+  <si>
+    <t>Crystal Barron</t>
+  </si>
+  <si>
+    <t>Connor Scott</t>
+  </si>
+  <si>
+    <t>Lindsey Peterson</t>
+  </si>
+  <si>
+    <t>Jeanette Glover</t>
+  </si>
+  <si>
+    <t>Donna Nielsen</t>
+  </si>
+  <si>
+    <t>Mandy Miller</t>
+  </si>
+  <si>
+    <t>Michelle Montgomery</t>
+  </si>
+  <si>
+    <t>Danielle Robinson</t>
+  </si>
+  <si>
+    <t>Rachel Oneill</t>
+  </si>
+  <si>
+    <t>Evan Phillips</t>
+  </si>
+  <si>
+    <t>Kayla Lopez</t>
+  </si>
+  <si>
+    <t>William Nelson</t>
+  </si>
+  <si>
+    <t>Elizabeth Evans</t>
+  </si>
+  <si>
+    <t>Megan King</t>
+  </si>
+  <si>
+    <t>Angela Stevens</t>
+  </si>
+  <si>
+    <t>Michael Cole</t>
+  </si>
+  <si>
+    <t>Lisa Williams</t>
+  </si>
+  <si>
+    <t>Robert Thomas</t>
+  </si>
+  <si>
+    <t>Alicia Wu</t>
+  </si>
+  <si>
+    <t>Hannah Soto</t>
+  </si>
+  <si>
+    <t>Nancy Cooley</t>
+  </si>
+  <si>
+    <t>Alicia Thomas</t>
+  </si>
+  <si>
+    <t>Katelyn Robinson</t>
+  </si>
+  <si>
+    <t>Autumn Reese</t>
+  </si>
+  <si>
+    <t>Michele Fitzpatrick</t>
+  </si>
+  <si>
+    <t>Kayla Lucero</t>
+  </si>
+  <si>
+    <t>Valerie Anderson</t>
+  </si>
+  <si>
+    <t>Chad Boyd</t>
+  </si>
+  <si>
+    <t>Maria Robertson</t>
+  </si>
+  <si>
+    <t>Rebecca Kelley</t>
+  </si>
+  <si>
+    <t>David Mack</t>
+  </si>
+  <si>
+    <t>Marc Hernandez</t>
+  </si>
+  <si>
+    <t>Dawn Boyd</t>
+  </si>
+  <si>
+    <t>Richard Perry</t>
+  </si>
+  <si>
+    <t>Mary Barry</t>
+  </si>
+  <si>
+    <t>Jeffrey Rodriguez</t>
   </si>
   <si>
     <t>KLSE</t>
@@ -686,7 +692,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F228"/>
+  <dimension ref="A1:F233"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -723,10 +729,10 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -740,10 +746,10 @@
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -757,10 +763,10 @@
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E4" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -771,13 +777,13 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
         <v>53</v>
       </c>
       <c r="E5" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -788,13 +794,13 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
         <v>53</v>
       </c>
       <c r="E6" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -805,13 +811,13 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D7" t="s">
         <v>53</v>
       </c>
       <c r="E7" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -825,10 +831,10 @@
         <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -842,10 +848,10 @@
         <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -859,10 +865,10 @@
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -876,10 +882,10 @@
         <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -890,13 +896,13 @@
         <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E12" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -910,10 +916,10 @@
         <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E13" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -924,13 +930,13 @@
         <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D14" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -941,13 +947,13 @@
         <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D15" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E15" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -958,13 +964,13 @@
         <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D16" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E16" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -975,13 +981,13 @@
         <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D17" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E17" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -992,13 +998,13 @@
         <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D18" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E18" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1009,13 +1015,13 @@
         <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D19" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E19" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1026,13 +1032,13 @@
         <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D20" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E20" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1043,13 +1049,13 @@
         <v>7</v>
       </c>
       <c r="C21" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D21" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E21" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1060,13 +1066,13 @@
         <v>7</v>
       </c>
       <c r="C22" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D22" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E22" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1077,13 +1083,13 @@
         <v>7</v>
       </c>
       <c r="C23" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D23" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E23" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1094,13 +1100,13 @@
         <v>7</v>
       </c>
       <c r="C24" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D24" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E24" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1111,13 +1117,13 @@
         <v>7</v>
       </c>
       <c r="C25" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D25" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E25" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1128,13 +1134,13 @@
         <v>7</v>
       </c>
       <c r="C26" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D26" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E26" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1145,13 +1151,13 @@
         <v>7</v>
       </c>
       <c r="C27" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D27" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E27" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1162,13 +1168,13 @@
         <v>7</v>
       </c>
       <c r="C28" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D28" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E28" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1179,13 +1185,13 @@
         <v>7</v>
       </c>
       <c r="C29" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D29" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E29" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1196,13 +1202,13 @@
         <v>7</v>
       </c>
       <c r="C30" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D30" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E30" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1213,13 +1219,13 @@
         <v>7</v>
       </c>
       <c r="C31" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D31" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E31" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1230,13 +1236,13 @@
         <v>7</v>
       </c>
       <c r="C32" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D32" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E32" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1247,13 +1253,13 @@
         <v>7</v>
       </c>
       <c r="C33" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D33" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E33" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1264,13 +1270,13 @@
         <v>7</v>
       </c>
       <c r="C34" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D34" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E34" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1281,13 +1287,13 @@
         <v>7</v>
       </c>
       <c r="C35" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D35" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E35" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1298,13 +1304,13 @@
         <v>7</v>
       </c>
       <c r="C36" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D36" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E36" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1315,13 +1321,13 @@
         <v>7</v>
       </c>
       <c r="C37" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D37" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E37" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1332,13 +1338,13 @@
         <v>7</v>
       </c>
       <c r="C38" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D38" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E38" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1352,10 +1358,10 @@
         <v>16</v>
       </c>
       <c r="D39" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E39" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1369,10 +1375,10 @@
         <v>16</v>
       </c>
       <c r="D40" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E40" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1386,10 +1392,10 @@
         <v>16</v>
       </c>
       <c r="D41" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E41" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1403,10 +1409,10 @@
         <v>16</v>
       </c>
       <c r="D42" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E42" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1420,10 +1426,10 @@
         <v>17</v>
       </c>
       <c r="D43" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E43" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1437,10 +1443,10 @@
         <v>17</v>
       </c>
       <c r="D44" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E44" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1454,10 +1460,10 @@
         <v>17</v>
       </c>
       <c r="D45" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E45" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1471,10 +1477,10 @@
         <v>17</v>
       </c>
       <c r="D46" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E46" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1485,13 +1491,13 @@
         <v>7</v>
       </c>
       <c r="C47" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D47" t="s">
         <v>62</v>
       </c>
       <c r="E47" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1502,13 +1508,13 @@
         <v>7</v>
       </c>
       <c r="C48" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D48" t="s">
         <v>62</v>
       </c>
       <c r="E48" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1522,7 +1528,7 @@
         <v>18</v>
       </c>
       <c r="D49" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E49" t="s">
         <v>98</v>
@@ -1539,7 +1545,7 @@
         <v>18</v>
       </c>
       <c r="D50" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E50" t="s">
         <v>99</v>
@@ -1556,7 +1562,7 @@
         <v>18</v>
       </c>
       <c r="D51" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E51" t="s">
         <v>100</v>
@@ -1573,7 +1579,7 @@
         <v>18</v>
       </c>
       <c r="D52" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E52" t="s">
         <v>101</v>
@@ -1590,7 +1596,7 @@
         <v>18</v>
       </c>
       <c r="D53" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E53" t="s">
         <v>102</v>
@@ -1604,13 +1610,13 @@
         <v>7</v>
       </c>
       <c r="C54" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D54" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E54" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1624,10 +1630,10 @@
         <v>19</v>
       </c>
       <c r="D55" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E55" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1638,13 +1644,13 @@
         <v>7</v>
       </c>
       <c r="C56" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D56" t="s">
         <v>64</v>
       </c>
       <c r="E56" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1655,13 +1661,13 @@
         <v>7</v>
       </c>
       <c r="C57" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D57" t="s">
         <v>64</v>
       </c>
       <c r="E57" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1672,13 +1678,13 @@
         <v>7</v>
       </c>
       <c r="C58" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D58" t="s">
         <v>64</v>
       </c>
       <c r="E58" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1689,13 +1695,13 @@
         <v>7</v>
       </c>
       <c r="C59" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D59" t="s">
         <v>64</v>
       </c>
       <c r="E59" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1706,13 +1712,13 @@
         <v>7</v>
       </c>
       <c r="C60" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D60" t="s">
         <v>64</v>
       </c>
       <c r="E60" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1723,13 +1729,13 @@
         <v>7</v>
       </c>
       <c r="C61" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D61" t="s">
         <v>64</v>
       </c>
       <c r="E61" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1743,10 +1749,10 @@
         <v>20</v>
       </c>
       <c r="D62" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E62" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1760,10 +1766,10 @@
         <v>20</v>
       </c>
       <c r="D63" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E63" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1777,10 +1783,10 @@
         <v>20</v>
       </c>
       <c r="D64" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E64" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1791,13 +1797,13 @@
         <v>7</v>
       </c>
       <c r="C65" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D65" t="s">
         <v>65</v>
       </c>
       <c r="E65" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1808,13 +1814,13 @@
         <v>7</v>
       </c>
       <c r="C66" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D66" t="s">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1828,7 +1834,7 @@
         <v>21</v>
       </c>
       <c r="D67" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E67" t="s">
         <v>98</v>
@@ -1845,10 +1851,10 @@
         <v>22</v>
       </c>
       <c r="D68" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1859,13 +1865,13 @@
         <v>7</v>
       </c>
       <c r="C69" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D69" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1876,10 +1882,10 @@
         <v>7</v>
       </c>
       <c r="C70" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D70" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E70" t="s">
         <v>98</v>
@@ -1893,10 +1899,10 @@
         <v>7</v>
       </c>
       <c r="C71" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D71" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E71" t="s">
         <v>99</v>
@@ -1910,10 +1916,10 @@
         <v>7</v>
       </c>
       <c r="C72" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D72" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E72" t="s">
         <v>100</v>
@@ -1927,10 +1933,10 @@
         <v>7</v>
       </c>
       <c r="C73" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D73" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E73" t="s">
         <v>101</v>
@@ -1944,10 +1950,10 @@
         <v>7</v>
       </c>
       <c r="C74" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D74" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E74" t="s">
         <v>102</v>
@@ -1961,10 +1967,10 @@
         <v>7</v>
       </c>
       <c r="C75" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D75" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E75" t="s">
         <v>103</v>
@@ -1978,10 +1984,10 @@
         <v>7</v>
       </c>
       <c r="C76" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D76" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E76" t="s">
         <v>104</v>
@@ -1995,13 +2001,13 @@
         <v>7</v>
       </c>
       <c r="C77" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D77" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E77" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2012,13 +2018,13 @@
         <v>7</v>
       </c>
       <c r="C78" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D78" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E78" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -2029,10 +2035,10 @@
         <v>7</v>
       </c>
       <c r="C79" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D79" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E79" t="s">
         <v>98</v>
@@ -2046,10 +2052,10 @@
         <v>7</v>
       </c>
       <c r="C80" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D80" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E80" t="s">
         <v>99</v>
@@ -2063,10 +2069,10 @@
         <v>7</v>
       </c>
       <c r="C81" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D81" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E81" t="s">
         <v>100</v>
@@ -2080,10 +2086,10 @@
         <v>7</v>
       </c>
       <c r="C82" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D82" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E82" t="s">
         <v>101</v>
@@ -2097,10 +2103,10 @@
         <v>7</v>
       </c>
       <c r="C83" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D83" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E83" t="s">
         <v>102</v>
@@ -2114,13 +2120,13 @@
         <v>7</v>
       </c>
       <c r="C84" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D84" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E84" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -2131,13 +2137,13 @@
         <v>7</v>
       </c>
       <c r="C85" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D85" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E85" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -2148,13 +2154,13 @@
         <v>7</v>
       </c>
       <c r="C86" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D86" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E86" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -2165,13 +2171,13 @@
         <v>7</v>
       </c>
       <c r="C87" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D87" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E87" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -2182,13 +2188,13 @@
         <v>7</v>
       </c>
       <c r="C88" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D88" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E88" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -2199,13 +2205,13 @@
         <v>7</v>
       </c>
       <c r="C89" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D89" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E89" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -2216,13 +2222,13 @@
         <v>7</v>
       </c>
       <c r="C90" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D90" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E90" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -2233,13 +2239,13 @@
         <v>7</v>
       </c>
       <c r="C91" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D91" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E91" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -2250,13 +2256,13 @@
         <v>7</v>
       </c>
       <c r="C92" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D92" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E92" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2267,13 +2273,13 @@
         <v>7</v>
       </c>
       <c r="C93" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D93" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E93" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2284,13 +2290,13 @@
         <v>7</v>
       </c>
       <c r="C94" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D94" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E94" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2301,13 +2307,13 @@
         <v>7</v>
       </c>
       <c r="C95" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D95" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E95" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2318,13 +2324,13 @@
         <v>7</v>
       </c>
       <c r="C96" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D96" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E96" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2335,13 +2341,13 @@
         <v>7</v>
       </c>
       <c r="C97" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D97" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E97" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2352,13 +2358,13 @@
         <v>7</v>
       </c>
       <c r="C98" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D98" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E98" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2369,13 +2375,13 @@
         <v>7</v>
       </c>
       <c r="C99" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D99" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E99" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2386,13 +2392,13 @@
         <v>7</v>
       </c>
       <c r="C100" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D100" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E100" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2403,13 +2409,13 @@
         <v>7</v>
       </c>
       <c r="C101" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D101" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E101" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -2420,13 +2426,13 @@
         <v>7</v>
       </c>
       <c r="C102" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D102" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E102" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -2437,13 +2443,13 @@
         <v>7</v>
       </c>
       <c r="C103" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D103" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E103" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -2454,13 +2460,13 @@
         <v>7</v>
       </c>
       <c r="C104" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D104" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E104" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -2471,13 +2477,13 @@
         <v>7</v>
       </c>
       <c r="C105" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D105" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E105" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -2488,13 +2494,13 @@
         <v>7</v>
       </c>
       <c r="C106" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D106" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E106" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -2505,13 +2511,13 @@
         <v>7</v>
       </c>
       <c r="C107" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D107" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E107" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -2522,13 +2528,13 @@
         <v>7</v>
       </c>
       <c r="C108" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D108" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E108" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -2539,13 +2545,13 @@
         <v>7</v>
       </c>
       <c r="C109" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D109" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E109" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -2556,13 +2562,13 @@
         <v>7</v>
       </c>
       <c r="C110" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D110" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E110" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -2573,13 +2579,13 @@
         <v>7</v>
       </c>
       <c r="C111" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D111" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E111" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -2590,13 +2596,13 @@
         <v>7</v>
       </c>
       <c r="C112" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D112" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E112" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -2607,13 +2613,13 @@
         <v>7</v>
       </c>
       <c r="C113" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D113" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E113" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -2624,13 +2630,13 @@
         <v>7</v>
       </c>
       <c r="C114" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D114" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E114" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -2641,13 +2647,13 @@
         <v>7</v>
       </c>
       <c r="C115" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D115" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E115" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -2658,13 +2664,13 @@
         <v>7</v>
       </c>
       <c r="C116" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D116" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E116" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -2675,13 +2681,13 @@
         <v>7</v>
       </c>
       <c r="C117" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D117" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E117" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -2692,13 +2698,13 @@
         <v>7</v>
       </c>
       <c r="C118" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D118" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E118" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -2709,13 +2715,13 @@
         <v>7</v>
       </c>
       <c r="C119" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D119" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E119" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -2726,13 +2732,13 @@
         <v>7</v>
       </c>
       <c r="C120" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D120" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E120" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -2743,13 +2749,13 @@
         <v>7</v>
       </c>
       <c r="C121" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D121" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E121" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -2760,13 +2766,13 @@
         <v>7</v>
       </c>
       <c r="C122" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D122" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E122" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -2777,13 +2783,13 @@
         <v>7</v>
       </c>
       <c r="C123" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D123" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E123" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -2794,13 +2800,13 @@
         <v>7</v>
       </c>
       <c r="C124" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D124" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E124" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -2811,13 +2817,13 @@
         <v>7</v>
       </c>
       <c r="C125" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D125" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E125" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -2828,13 +2834,13 @@
         <v>7</v>
       </c>
       <c r="C126" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D126" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E126" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -2845,10 +2851,10 @@
         <v>7</v>
       </c>
       <c r="C127" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D127" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E127" t="s">
         <v>98</v>
@@ -2862,10 +2868,10 @@
         <v>7</v>
       </c>
       <c r="C128" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D128" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E128" t="s">
         <v>99</v>
@@ -2879,10 +2885,10 @@
         <v>7</v>
       </c>
       <c r="C129" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D129" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E129" t="s">
         <v>100</v>
@@ -2896,13 +2902,13 @@
         <v>7</v>
       </c>
       <c r="C130" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D130" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E130" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -2913,13 +2919,13 @@
         <v>7</v>
       </c>
       <c r="C131" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D131" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E131" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -2930,13 +2936,13 @@
         <v>7</v>
       </c>
       <c r="C132" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D132" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E132" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -2947,13 +2953,13 @@
         <v>7</v>
       </c>
       <c r="C133" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D133" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E133" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -2964,13 +2970,13 @@
         <v>7</v>
       </c>
       <c r="C134" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D134" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E134" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -2981,13 +2987,13 @@
         <v>7</v>
       </c>
       <c r="C135" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D135" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E135" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -2998,13 +3004,13 @@
         <v>7</v>
       </c>
       <c r="C136" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D136" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E136" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -3015,13 +3021,13 @@
         <v>7</v>
       </c>
       <c r="C137" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D137" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E137" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -3032,13 +3038,13 @@
         <v>7</v>
       </c>
       <c r="C138" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D138" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E138" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -3049,13 +3055,13 @@
         <v>7</v>
       </c>
       <c r="C139" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D139" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E139" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -3066,13 +3072,13 @@
         <v>7</v>
       </c>
       <c r="C140" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D140" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E140" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -3083,13 +3089,13 @@
         <v>7</v>
       </c>
       <c r="C141" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D141" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E141" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -3100,13 +3106,13 @@
         <v>7</v>
       </c>
       <c r="C142" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D142" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E142" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -3117,13 +3123,13 @@
         <v>7</v>
       </c>
       <c r="C143" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D143" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E143" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -3134,13 +3140,13 @@
         <v>7</v>
       </c>
       <c r="C144" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D144" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E144" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -3151,13 +3157,13 @@
         <v>7</v>
       </c>
       <c r="C145" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D145" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E145" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -3168,13 +3174,13 @@
         <v>7</v>
       </c>
       <c r="C146" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D146" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E146" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -3185,13 +3191,13 @@
         <v>7</v>
       </c>
       <c r="C147" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D147" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E147" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -3202,13 +3208,13 @@
         <v>7</v>
       </c>
       <c r="C148" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D148" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E148" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -3219,13 +3225,13 @@
         <v>7</v>
       </c>
       <c r="C149" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D149" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E149" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -3236,13 +3242,13 @@
         <v>7</v>
       </c>
       <c r="C150" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D150" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E150" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -3253,13 +3259,13 @@
         <v>7</v>
       </c>
       <c r="C151" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D151" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E151" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -3270,13 +3276,13 @@
         <v>7</v>
       </c>
       <c r="C152" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D152" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E152" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -3287,13 +3293,13 @@
         <v>7</v>
       </c>
       <c r="C153" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D153" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E153" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -3304,13 +3310,13 @@
         <v>7</v>
       </c>
       <c r="C154" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D154" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E154" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -3321,13 +3327,13 @@
         <v>7</v>
       </c>
       <c r="C155" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D155" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E155" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -3338,13 +3344,13 @@
         <v>7</v>
       </c>
       <c r="C156" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D156" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E156" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -3355,13 +3361,13 @@
         <v>7</v>
       </c>
       <c r="C157" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D157" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E157" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -3372,13 +3378,13 @@
         <v>7</v>
       </c>
       <c r="C158" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D158" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E158" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -3389,13 +3395,13 @@
         <v>7</v>
       </c>
       <c r="C159" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D159" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E159" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -3406,13 +3412,13 @@
         <v>7</v>
       </c>
       <c r="C160" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D160" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E160" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -3423,13 +3429,13 @@
         <v>7</v>
       </c>
       <c r="C161" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D161" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E161" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -3440,13 +3446,13 @@
         <v>7</v>
       </c>
       <c r="C162" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D162" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E162" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -3457,13 +3463,13 @@
         <v>7</v>
       </c>
       <c r="C163" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D163" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E163" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -3474,13 +3480,13 @@
         <v>7</v>
       </c>
       <c r="C164" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D164" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E164" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -3491,13 +3497,13 @@
         <v>7</v>
       </c>
       <c r="C165" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D165" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E165" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -3508,13 +3514,13 @@
         <v>7</v>
       </c>
       <c r="C166" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D166" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E166" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -3525,13 +3531,13 @@
         <v>7</v>
       </c>
       <c r="C167" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D167" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E167" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -3542,13 +3548,13 @@
         <v>7</v>
       </c>
       <c r="C168" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D168" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E168" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -3559,13 +3565,13 @@
         <v>7</v>
       </c>
       <c r="C169" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D169" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E169" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -3576,13 +3582,13 @@
         <v>7</v>
       </c>
       <c r="C170" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D170" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E170" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -3593,13 +3599,13 @@
         <v>7</v>
       </c>
       <c r="C171" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D171" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E171" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -3610,13 +3616,13 @@
         <v>7</v>
       </c>
       <c r="C172" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D172" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E172" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -3627,13 +3633,13 @@
         <v>7</v>
       </c>
       <c r="C173" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D173" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E173" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -3644,13 +3650,13 @@
         <v>7</v>
       </c>
       <c r="C174" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D174" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E174" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -3661,13 +3667,13 @@
         <v>7</v>
       </c>
       <c r="C175" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D175" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E175" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -3678,13 +3684,13 @@
         <v>7</v>
       </c>
       <c r="C176" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D176" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E176" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -3695,13 +3701,13 @@
         <v>7</v>
       </c>
       <c r="C177" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D177" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E177" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -3712,13 +3718,13 @@
         <v>7</v>
       </c>
       <c r="C178" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D178" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E178" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -3729,13 +3735,13 @@
         <v>7</v>
       </c>
       <c r="C179" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D179" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E179" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -3746,13 +3752,13 @@
         <v>7</v>
       </c>
       <c r="C180" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D180" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E180" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -3763,13 +3769,13 @@
         <v>7</v>
       </c>
       <c r="C181" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D181" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E181" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -3783,10 +3789,10 @@
         <v>43</v>
       </c>
       <c r="D182" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E182" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -3797,13 +3803,13 @@
         <v>7</v>
       </c>
       <c r="C183" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D183" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E183" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -3814,13 +3820,13 @@
         <v>7</v>
       </c>
       <c r="C184" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D184" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E184" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -3831,13 +3837,13 @@
         <v>7</v>
       </c>
       <c r="C185" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D185" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E185" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -3851,10 +3857,10 @@
         <v>44</v>
       </c>
       <c r="D186" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E186" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -3865,13 +3871,13 @@
         <v>7</v>
       </c>
       <c r="C187" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D187" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E187" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -3882,13 +3888,13 @@
         <v>7</v>
       </c>
       <c r="C188" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D188" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E188" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -3899,13 +3905,13 @@
         <v>7</v>
       </c>
       <c r="C189" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D189" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E189" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -3916,13 +3922,13 @@
         <v>7</v>
       </c>
       <c r="C190" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D190" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E190" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -3933,13 +3939,13 @@
         <v>7</v>
       </c>
       <c r="C191" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D191" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E191" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -3950,13 +3956,13 @@
         <v>7</v>
       </c>
       <c r="C192" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D192" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E192" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -3967,13 +3973,13 @@
         <v>7</v>
       </c>
       <c r="C193" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D193" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E193" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -3984,13 +3990,13 @@
         <v>7</v>
       </c>
       <c r="C194" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D194" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E194" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -4001,13 +4007,13 @@
         <v>7</v>
       </c>
       <c r="C195" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D195" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E195" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -4018,13 +4024,13 @@
         <v>7</v>
       </c>
       <c r="C196" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D196" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E196" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -4035,13 +4041,13 @@
         <v>7</v>
       </c>
       <c r="C197" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D197" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E197" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -4052,13 +4058,13 @@
         <v>7</v>
       </c>
       <c r="C198" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D198" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E198" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -4069,13 +4075,13 @@
         <v>7</v>
       </c>
       <c r="C199" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D199" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E199" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -4086,13 +4092,13 @@
         <v>7</v>
       </c>
       <c r="C200" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D200" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E200" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -4103,13 +4109,13 @@
         <v>7</v>
       </c>
       <c r="C201" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D201" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E201" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -4120,13 +4126,13 @@
         <v>7</v>
       </c>
       <c r="C202" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D202" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E202" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -4137,13 +4143,13 @@
         <v>7</v>
       </c>
       <c r="C203" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D203" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E203" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -4154,13 +4160,13 @@
         <v>7</v>
       </c>
       <c r="C204" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D204" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E204" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -4174,10 +4180,10 @@
         <v>47</v>
       </c>
       <c r="D205" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E205" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -4188,13 +4194,13 @@
         <v>7</v>
       </c>
       <c r="C206" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D206" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E206" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -4205,13 +4211,13 @@
         <v>7</v>
       </c>
       <c r="C207" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D207" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E207" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -4222,13 +4228,13 @@
         <v>7</v>
       </c>
       <c r="C208" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D208" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E208" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -4239,13 +4245,13 @@
         <v>7</v>
       </c>
       <c r="C209" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D209" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E209" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -4256,13 +4262,13 @@
         <v>7</v>
       </c>
       <c r="C210" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D210" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E210" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -4273,13 +4279,13 @@
         <v>7</v>
       </c>
       <c r="C211" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D211" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E211" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -4290,13 +4296,13 @@
         <v>7</v>
       </c>
       <c r="C212" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D212" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E212" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -4310,10 +4316,10 @@
         <v>49</v>
       </c>
       <c r="D213" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E213" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -4327,10 +4333,10 @@
         <v>49</v>
       </c>
       <c r="D214" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E214" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -4344,10 +4350,10 @@
         <v>49</v>
       </c>
       <c r="D215" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E215" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -4358,13 +4364,13 @@
         <v>7</v>
       </c>
       <c r="C216" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D216" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E216" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -4378,10 +4384,10 @@
         <v>50</v>
       </c>
       <c r="D217" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E217" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -4395,10 +4401,10 @@
         <v>50</v>
       </c>
       <c r="D218" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E218" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -4412,10 +4418,10 @@
         <v>50</v>
       </c>
       <c r="D219" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E219" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -4429,10 +4435,10 @@
         <v>50</v>
       </c>
       <c r="D220" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E220" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -4443,13 +4449,13 @@
         <v>7</v>
       </c>
       <c r="C221" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D221" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E221" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -4460,13 +4466,13 @@
         <v>7</v>
       </c>
       <c r="C222" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D222" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E222" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -4477,13 +4483,13 @@
         <v>7</v>
       </c>
       <c r="C223" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D223" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E223" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -4494,13 +4500,13 @@
         <v>7</v>
       </c>
       <c r="C224" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D224" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E224" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -4511,13 +4517,13 @@
         <v>7</v>
       </c>
       <c r="C225" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D225" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E225" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -4531,10 +4537,10 @@
         <v>51</v>
       </c>
       <c r="D226" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E226" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -4548,10 +4554,10 @@
         <v>51</v>
       </c>
       <c r="D227" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E227" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -4565,10 +4571,95 @@
         <v>51</v>
       </c>
       <c r="D228" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E228" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5">
+      <c r="A229" t="s">
+        <v>6</v>
+      </c>
+      <c r="B229" t="s">
+        <v>7</v>
+      </c>
+      <c r="C229" t="s">
+        <v>52</v>
+      </c>
+      <c r="D229" t="s">
+        <v>97</v>
+      </c>
+      <c r="E229" t="s">
         <v>98</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5">
+      <c r="A230" t="s">
+        <v>6</v>
+      </c>
+      <c r="B230" t="s">
+        <v>7</v>
+      </c>
+      <c r="C230" t="s">
+        <v>52</v>
+      </c>
+      <c r="D230" t="s">
+        <v>97</v>
+      </c>
+      <c r="E230" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5">
+      <c r="A231" t="s">
+        <v>6</v>
+      </c>
+      <c r="B231" t="s">
+        <v>7</v>
+      </c>
+      <c r="C231" t="s">
+        <v>52</v>
+      </c>
+      <c r="D231" t="s">
+        <v>97</v>
+      </c>
+      <c r="E231" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5">
+      <c r="A232" t="s">
+        <v>6</v>
+      </c>
+      <c r="B232" t="s">
+        <v>7</v>
+      </c>
+      <c r="C232" t="s">
+        <v>52</v>
+      </c>
+      <c r="D232" t="s">
+        <v>97</v>
+      </c>
+      <c r="E232" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5">
+      <c r="A233" t="s">
+        <v>6</v>
+      </c>
+      <c r="B233" t="s">
+        <v>7</v>
+      </c>
+      <c r="C233" t="s">
+        <v>52</v>
+      </c>
+      <c r="D233" t="s">
+        <v>97</v>
+      </c>
+      <c r="E233" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
